--- a/public/download/template.xlsx
+++ b/public/download/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>Meal Stub Cutoff For:</t>
   </si>
@@ -22,12 +22,33 @@
     <t>11/01/21  -  11/15/21</t>
   </si>
   <si>
+    <t>Employee No.</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
+    <t>P000455</t>
+  </si>
+  <si>
+    <t>Rosela Duran</t>
+  </si>
+  <si>
+    <t>P000454</t>
+  </si>
+  <si>
+    <t>Ma. April Ann Jadina</t>
+  </si>
+  <si>
+    <t>P000459</t>
+  </si>
+  <si>
+    <t>Jun Jun Soriano</t>
+  </si>
+  <si>
     <t>Lory Xu</t>
   </si>
   <si>
@@ -52,10 +73,13 @@
     <t>Yaya Wu</t>
   </si>
   <si>
+    <t>P000389</t>
+  </si>
+  <si>
     <t>Bob Hua</t>
   </si>
   <si>
-    <t>Zhisen Chen</t>
+    <t>Zhishen Chen</t>
   </si>
   <si>
     <t>Tong Liu</t>
@@ -82,37 +106,37 @@
     <t>Bangfan Dong</t>
   </si>
   <si>
+    <t>Jinping Feng</t>
+  </si>
+  <si>
+    <t>Kevin Fan</t>
+  </si>
+  <si>
+    <t>Fine Fan</t>
+  </si>
+  <si>
+    <t>Bin Wang</t>
+  </si>
+  <si>
+    <t>Bolong Lv</t>
+  </si>
+  <si>
+    <t>Jesse Xia</t>
+  </si>
+  <si>
+    <t>XiaoFei Sun</t>
+  </si>
+  <si>
+    <t>Bruce Dai</t>
+  </si>
+  <si>
+    <t>Dieam Wang</t>
+  </si>
+  <si>
+    <t>Jack Yueh</t>
+  </si>
+  <si>
     <t>Zengzeng Cai</t>
-  </si>
-  <si>
-    <t>Jinping Feng</t>
-  </si>
-  <si>
-    <t>Kevin Fan</t>
-  </si>
-  <si>
-    <t>Fine Fan</t>
-  </si>
-  <si>
-    <t>Bin Wang</t>
-  </si>
-  <si>
-    <t>Bolong Lv</t>
-  </si>
-  <si>
-    <t>Jesse Xia</t>
-  </si>
-  <si>
-    <t>XiaoFei Sun</t>
-  </si>
-  <si>
-    <t>Bruce Dai</t>
-  </si>
-  <si>
-    <t>Dieam Wang</t>
-  </si>
-  <si>
-    <t>Jack Yueh</t>
   </si>
 </sst>
 </file>
@@ -121,11 +145,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +168,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -156,6 +187,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,8 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,10 +233,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,107 +289,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,192 +352,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -530,11 +561,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +589,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,21 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,157 +694,175 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1119,219 +1181,328 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.1904761904762" customWidth="1"/>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10">
+        <v>2029724</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10">
+        <v>2041826</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10">
+        <v>2017767</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10">
+        <v>2000245</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10">
+        <v>2036727</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
+        <v>2011291</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10">
+        <v>1038</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10">
+        <v>2012139</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10">
+        <v>2016565</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10">
+        <v>2014398</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10">
+        <v>2038440</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10">
+        <v>2027700</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10">
+        <v>2026477</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10">
+        <v>2011627</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10">
+        <v>2005414</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10">
+        <v>2040975</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10">
+        <v>2000472</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10">
+        <v>2029488</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10">
+        <v>2015314</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10">
+        <v>2025685</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10">
+        <v>2013755</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10">
+        <v>2036269</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="10">
+        <v>2013444</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="10">
+        <v>2002932</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10">
+        <v>2000059</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10">
+        <v>2002829</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10">
+        <v>403</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6">
+        <v>2015061</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/public/download/template.xlsx
+++ b/public/download/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8970"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Meal Stub Cutoff For:</t>
   </si>
@@ -145,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -189,37 +189,83 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,46 +280,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -318,13 +325,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -352,13 +352,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,169 +466,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +574,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,15 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,20 +635,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,21 +671,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,134 +694,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,19 +846,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,12 +867,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -920,6 +911,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1179,12 +1175,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1202,307 +1198,307 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
+      <c r="A7" s="6">
+        <v>2029724</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="A8" s="6">
+        <v>2041826</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10">
-        <v>2029724</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8"/>
+      <c r="A9" s="6">
+        <v>2017767</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10">
-        <v>2041826</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="A10" s="6">
+        <v>2000245</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10">
-        <v>2017767</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8"/>
+      <c r="A11" s="6">
+        <v>2036727</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10">
-        <v>2000245</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="A12" s="6">
+        <v>2011291</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10">
-        <v>2036727</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="A13" s="6">
+        <v>1038</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10">
-        <v>2011291</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="A14" s="6">
+        <v>2012139</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10">
-        <v>1038</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10">
-        <v>2012139</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="A16" s="6">
+        <v>2016565</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="A17" s="6">
+        <v>2014398</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10">
-        <v>2016565</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8"/>
+      <c r="A18" s="6">
+        <v>2038440</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10">
-        <v>2014398</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
+      <c r="A19" s="6">
+        <v>2027700</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10">
-        <v>2038440</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="A20" s="6">
+        <v>2026477</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10">
-        <v>2027700</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="A21" s="6">
+        <v>2011627</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10">
-        <v>2026477</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8"/>
+      <c r="A22" s="6">
+        <v>2005414</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10">
-        <v>2011627</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="A23" s="6">
+        <v>2040975</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10">
-        <v>2005414</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="A24" s="6">
+        <v>2000472</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10">
-        <v>2040975</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="8"/>
+      <c r="A25" s="6">
+        <v>2029488</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10">
-        <v>2000472</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="A26" s="6">
+        <v>2015314</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10">
-        <v>2029488</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="A27" s="6">
+        <v>2025685</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10">
-        <v>2015314</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8"/>
+      <c r="A28" s="6">
+        <v>2013755</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10">
-        <v>2025685</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="8"/>
+      <c r="A29" s="6">
+        <v>2036269</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10">
-        <v>2013755</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="A30" s="6">
+        <v>2013444</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10">
-        <v>2036269</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="A31" s="6">
+        <v>2002932</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10">
-        <v>2013444</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="A32" s="6">
+        <v>2000059</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10">
-        <v>2002932</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="8"/>
+      <c r="A33" s="6">
+        <v>2002829</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10">
-        <v>2000059</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="A34" s="6">
+        <v>403</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10">
-        <v>2002829</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10">
-        <v>403</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6">
+      <c r="A35" s="6">
         <v>2015061</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="14"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/public/download/template.xlsx
+++ b/public/download/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20370" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Meal Stub Cutoff For:</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Zengzeng Cai</t>
+  </si>
+  <si>
+    <t>Lester Chen</t>
+  </si>
+  <si>
+    <t>Bahamut Chen</t>
   </si>
 </sst>
 </file>
@@ -144,12 +150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,85 +193,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10.8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +218,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -288,50 +281,73 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +368,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,180 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,11 +598,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,16 +624,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +659,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,22 +674,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,15 +698,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,134 +716,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,8 +877,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -867,12 +895,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -911,11 +939,6 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1175,18 +1198,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1497,8 +1520,23 @@
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11">
+        <v>699</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11">
+        <v>4257</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
